--- a/Sujeto_12/Carbohidrates.xlsx
+++ b/Sujeto_12/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAA461E-4E65-374A-91CF-13866D24D2B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2C4A15-C0ED-424D-A38F-FEE3128FB442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
